--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,268 +40,301 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>struggling</t>
+    <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>empty</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>save</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -659,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3">
+        <v>0.9782608695652174</v>
+      </c>
+      <c r="L3">
         <v>45</v>
       </c>
-      <c r="K3">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L3">
-        <v>116</v>
-      </c>
       <c r="M3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,16 +832,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -828,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9210526315789473</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,16 +932,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +961,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.85</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,31 +979,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L7">
+        <v>55</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7">
-        <v>0.9302325581395349</v>
-      </c>
-      <c r="L7">
-        <v>40</v>
-      </c>
-      <c r="M7">
-        <v>40</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8695652173913043</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,31 +1029,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>0.9302325581395349</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1061,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1111,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8527397260273972</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1096,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.9086161879895561</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L10">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M10">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1161,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8260869565217391</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8867924528301887</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1170,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1196,31 +1229,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8738738738738738</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,13 +1261,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7586206896551724</v>
+        <v>0.76</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.86875</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1270,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,13 +1311,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6944444444444444</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8671875</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1328,13 +1361,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1346,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.8636363636363636</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6862745098039216</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1396,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,13 +1461,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6779661016949152</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1446,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1470,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1478,13 +1511,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6724806201550387</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C18">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.8591549295774648</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L18">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1520,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1528,13 +1561,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,16 +1582,16 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1578,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6613756613756614</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1596,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.8297872340425532</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1620,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,13 +1661,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1646,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.8292682926829268</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L21">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1670,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1678,13 +1711,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6410256410256411</v>
+        <v>0.65625</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1728,13 +1761,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6333333333333333</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.8148148148148148</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1770,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1778,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5972222222222222</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C24">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1796,19 +1829,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.7936507936507936</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1820,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,13 +1861,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5818181818181818</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1846,19 +1879,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1870,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1878,13 +1911,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5771812080536913</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C26">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="D26">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1896,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.775</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1920,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1928,13 +1961,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.509090909090909</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1946,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.7676470588235295</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L27">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1970,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,37 +2011,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>35</v>
       </c>
-      <c r="D28">
-        <v>35</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>40</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.7450980392156863</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2020,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2028,13 +2061,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4464285714285715</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2046,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.7428571428571429</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2070,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2078,13 +2111,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4222222222222222</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C30">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2096,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2120,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2128,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3766233766233766</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2146,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.7154811715481172</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L31">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2170,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2178,13 +2211,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3412698412698413</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C32">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2196,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.7142857142857143</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2220,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2228,13 +2261,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2246,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2278,37 +2311,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2198391420911528</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>49</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D34">
-        <v>82</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>291</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K34">
-        <v>0.6915254237288135</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L34">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2320,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2328,37 +2361,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01215521271622253</v>
+        <v>0.3625</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>2113</v>
+        <v>51</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.6702127659574468</v>
+        <v>0.7</v>
       </c>
       <c r="L35">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2370,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2378,37 +2411,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01096774193548387</v>
+        <v>0.3412698412698413</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E36">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3066</v>
+        <v>166</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.6571428571428571</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L36">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2420,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2428,31 +2461,31 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006438631790744467</v>
+        <v>0.2439678284182306</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E37">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4938</v>
+        <v>282</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.62</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L37">
         <v>31</v>
@@ -2470,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2478,37 +2511,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005646417445482866</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="C38">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D38">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>5107</v>
+        <v>257</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.6179775280898876</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L38">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2520,21 +2553,45 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.01606086221470837</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <v>0.25</v>
+      </c>
+      <c r="F39">
+        <v>0.75</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2328</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2546,21 +2603,45 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.01449742268041237</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>0.06</v>
+      </c>
+      <c r="F40">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3059</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.5555555555555556</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2572,21 +2653,45 @@
         <v>0</v>
       </c>
       <c r="Q40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.009350163627863487</v>
+      </c>
+      <c r="C41">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>0.17</v>
+      </c>
+      <c r="F41">
+        <v>0.83</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2119</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K41">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2598,99 +2703,171 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.008067769261799113</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>78</v>
+      </c>
+      <c r="E42">
+        <v>0.49</v>
+      </c>
+      <c r="F42">
+        <v>0.51</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4918</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K42">
         <v>0.5</v>
       </c>
       <c r="L42">
+        <v>39</v>
+      </c>
+      <c r="M42">
+        <v>39</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.006052141527001862</v>
+      </c>
+      <c r="C43">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>0.55</v>
+      </c>
+      <c r="F43">
+        <v>0.45</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>4270</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="L43">
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <v>35</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.005261106780982073</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <v>0.55</v>
+      </c>
+      <c r="F44">
+        <v>0.45</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>5105</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>29</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>32</v>
-      </c>
-      <c r="M42">
-        <v>32</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.4912280701754386</v>
-      </c>
-      <c r="L43">
-        <v>28</v>
-      </c>
-      <c r="M43">
-        <v>28</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="L44">
-        <v>38</v>
-      </c>
-      <c r="M44">
-        <v>38</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.4794520547945205</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L45">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2702,21 +2879,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.4262295081967213</v>
+        <v>0.453125</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2733,16 +2910,16 @@
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.3728813559322034</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2754,21 +2931,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.2096774193548387</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2780,189 +2957,345 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.02835696413678065</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1165</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.009717868338557993</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>3159</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.00864336715520481</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N51">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>2638</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.007809288943690916</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N52">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2414</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.005646417445482866</v>
+        <v>0.04260651629072681</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M53">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N53">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>5107</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.005237711522965351</v>
+        <v>0.01839339339339339</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M54">
         <v>58</v>
       </c>
       <c r="N54">
-        <v>0.45</v>
+        <v>0.84</v>
       </c>
       <c r="O54">
-        <v>0.55</v>
+        <v>0.16</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4938</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.004408352668213457</v>
+        <v>0.01320754716981132</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N55">
+        <v>0.84</v>
+      </c>
+      <c r="O55">
+        <v>0.16</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56">
+        <v>0.01047339757017176</v>
+      </c>
+      <c r="L56">
+        <v>25</v>
+      </c>
+      <c r="M56">
+        <v>32</v>
+      </c>
+      <c r="N56">
+        <v>0.78</v>
+      </c>
+      <c r="O56">
+        <v>0.22</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K57">
+        <v>0.009872480460715755</v>
+      </c>
+      <c r="L57">
+        <v>24</v>
+      </c>
+      <c r="M57">
+        <v>38</v>
+      </c>
+      <c r="N57">
+        <v>0.63</v>
+      </c>
+      <c r="O57">
+        <v>0.37</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K58">
+        <v>0.007667473769168685</v>
+      </c>
+      <c r="L58">
+        <v>38</v>
+      </c>
+      <c r="M58">
+        <v>78</v>
+      </c>
+      <c r="N58">
+        <v>0.49</v>
+      </c>
+      <c r="O58">
         <v>0.51</v>
       </c>
-      <c r="O55">
-        <v>0.49</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>4291</v>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K59">
+        <v>0.007525870178739417</v>
+      </c>
+      <c r="L59">
+        <v>24</v>
+      </c>
+      <c r="M59">
+        <v>36</v>
+      </c>
+      <c r="N59">
+        <v>0.67</v>
+      </c>
+      <c r="O59">
+        <v>0.33</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60">
+        <v>0.007438400743840074</v>
+      </c>
+      <c r="L60">
+        <v>32</v>
+      </c>
+      <c r="M60">
+        <v>58</v>
+      </c>
+      <c r="N60">
+        <v>0.55</v>
+      </c>
+      <c r="O60">
+        <v>0.45</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61">
+        <v>0.006422732580770728</v>
+      </c>
+      <c r="L61">
+        <v>33</v>
+      </c>
+      <c r="M61">
+        <v>60</v>
+      </c>
+      <c r="N61">
+        <v>0.55</v>
+      </c>
+      <c r="O61">
+        <v>0.45</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>5105</v>
       </c>
     </row>
   </sheetData>
